--- a/example/production france.xlsx
+++ b/example/production france.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB22B9-93C7-4D64-B259-0EED807C7A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693A703-6D22-48E5-98DC-0AD874726A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
   </bookViews>
@@ -810,8 +810,8 @@
   <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/example/production france.xlsx
+++ b/example/production france.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693A703-6D22-48E5-98DC-0AD874726A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D786189B-545C-43C2-8DBB-1C94F6EF2590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="2" r:id="rId1"/>
     <sheet name="Diet" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Input data'!$A$1:$E$99</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Input data'!$A$1:$E$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="77">
   <si>
     <t>Area</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Total ingestion per capita (kgN)</t>
   </si>
   <si>
-    <t>Vegetal ingestion per capita (kgN)</t>
-  </si>
-  <si>
-    <t>Animal ingestion per capita (kgN)</t>
-  </si>
-  <si>
     <t>Excretion recycling (%)</t>
   </si>
   <si>
@@ -285,6 +279,9 @@
   </si>
   <si>
     <t>Meat of pig with the bone fresh or chilled</t>
+  </si>
+  <si>
+    <t>Fischery ingestion per capita (kgN)</t>
   </si>
 </sst>
 </file>
@@ -477,8 +474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C19122AA-E7CC-4368-B59D-7B0737AF5C9D}" name="production_france" displayName="production_france" ref="A1:E99" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E99" xr:uid="{C19122AA-E7CC-4368-B59D-7B0737AF5C9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C19122AA-E7CC-4368-B59D-7B0737AF5C9D}" name="production_france" displayName="production_france" ref="A1:E97" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E97" xr:uid="{C19122AA-E7CC-4368-B59D-7B0737AF5C9D}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{7B352F64-988D-49A0-B664-7D1BD688EE1B}" uniqueName="3" name="Area" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{E88EBC76-2C3C-4BE6-B345-902903CB70D2}" uniqueName="4" name="Year" queryTableFieldId="4"/>
@@ -807,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D825A9-0C1C-44E4-98B7-F194F26ABDB6}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>5412.79</v>
@@ -868,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>2480</v>
@@ -885,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>2590.69</v>
@@ -902,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>133.69</v>
@@ -919,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>95730.52</v>
@@ -936,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>20000</v>
@@ -953,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>300000</v>
@@ -970,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>1448</v>
@@ -987,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>1188</v>
@@ -1021,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1">
         <v>12143.49</v>
@@ -1038,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1">
         <v>12834.6</v>
@@ -1055,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>337.34</v>
@@ -1072,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1">
         <v>68.27</v>
@@ -1089,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1">
         <v>35995.57</v>
@@ -1106,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1">
         <v>387.8</v>
@@ -1123,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1">
         <v>5000</v>
@@ -1140,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1">
         <v>1301.42</v>
@@ -1157,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1">
         <v>2062.46</v>
@@ -1208,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1">
         <v>980600</v>
@@ -1293,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>5000000</v>
@@ -1327,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1">
         <v>1314680</v>
@@ -1412,7 +1409,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>3000000</v>
@@ -1426,7 +1423,7 @@
         <v>1961</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -1443,7 +1440,7 @@
         <v>1961</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -1494,7 +1491,7 @@
         <v>1961</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -1511,7 +1508,7 @@
         <v>1961</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -1528,7 +1525,7 @@
         <v>1961</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -1545,7 +1542,7 @@
         <v>1961</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -1562,7 +1559,7 @@
         <v>1961</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -1579,7 +1576,7 @@
         <v>1961</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -1596,7 +1593,7 @@
         <v>1961</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -1613,7 +1610,7 @@
         <v>1961</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -1630,7 +1627,7 @@
         <v>1961</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
@@ -1681,7 +1678,7 @@
         <v>1961</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
@@ -1698,7 +1695,7 @@
         <v>1961</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
@@ -1715,7 +1712,7 @@
         <v>1961</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
@@ -1732,7 +1729,7 @@
         <v>1961</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
@@ -1749,7 +1746,7 @@
         <v>1961</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
@@ -1766,7 +1763,7 @@
         <v>1961</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
@@ -1783,7 +1780,7 @@
         <v>1961</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
@@ -1800,7 +1797,7 @@
         <v>1961</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
@@ -1817,7 +1814,7 @@
         <v>1961</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
@@ -1834,7 +1831,7 @@
         <v>2023</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -1885,7 +1882,7 @@
         <v>2023</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -1902,7 +1899,7 @@
         <v>2023</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -1919,7 +1916,7 @@
         <v>2023</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -1936,7 +1933,7 @@
         <v>2023</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -1953,7 +1950,7 @@
         <v>2023</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -1970,7 +1967,7 @@
         <v>2023</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -1987,7 +1984,7 @@
         <v>2023</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -2004,7 +2001,7 @@
         <v>2023</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -2021,7 +2018,7 @@
         <v>2023</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -2038,7 +2035,7 @@
         <v>2023</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>15</v>
@@ -2089,7 +2086,7 @@
         <v>2023</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>15</v>
@@ -2106,7 +2103,7 @@
         <v>2023</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>15</v>
@@ -2123,7 +2120,7 @@
         <v>2023</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>15</v>
@@ -2140,7 +2137,7 @@
         <v>2023</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>15</v>
@@ -2157,7 +2154,7 @@
         <v>2023</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>15</v>
@@ -2174,7 +2171,7 @@
         <v>2023</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>15</v>
@@ -2191,7 +2188,7 @@
         <v>2023</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>15</v>
@@ -2208,7 +2205,7 @@
         <v>2023</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>15</v>
@@ -2225,7 +2222,7 @@
         <v>2023</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>15</v>
@@ -2245,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1">
         <v>40000000</v>
@@ -2259,10 +2256,10 @@
         <v>1961</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E85" s="1">
         <v>11.799999999999999</v>
@@ -2276,10 +2273,10 @@
         <v>1961</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E86" s="1">
         <v>42.5</v>
@@ -2293,10 +2290,10 @@
         <v>1961</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E87" s="1">
         <v>0.2</v>
@@ -2313,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E88" s="1">
         <v>6.5</v>
@@ -2327,13 +2324,13 @@
         <v>1961</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E89" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2344,13 +2341,13 @@
         <v>1961</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E90" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2358,16 +2355,16 @@
         <v>5</v>
       </c>
       <c r="B91">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E91" s="1">
-        <v>10</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2378,13 +2375,13 @@
         <v>2023</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E92" s="1">
-        <v>70000000</v>
+        <v>11.799999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2395,13 +2392,13 @@
         <v>2023</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E93" s="1">
-        <v>11.799999999999999</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2412,13 +2409,13 @@
         <v>2023</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E94" s="1">
-        <v>42.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2429,13 +2426,13 @@
         <v>2023</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E95" s="1">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2446,30 +2443,30 @@
         <v>2023</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E96" s="1">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B97">
         <v>2023</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="1">
-        <v>3.5</v>
+        <v>21</v>
+      </c>
+      <c r="E97" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2477,33 +2474,33 @@
         <v>5</v>
       </c>
       <c r="B98">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B99">
-        <v>2023</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E99" s="7">
-        <v>10</v>
+      <c r="D99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2514,13 +2511,13 @@
         <v>1961</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -2531,13 +2528,13 @@
         <v>1961</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E101" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2548,13 +2545,13 @@
         <v>1961</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E102" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2565,13 +2562,13 @@
         <v>1961</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2582,13 +2579,13 @@
         <v>1961</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104">
         <v>25</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2596,16 +2593,16 @@
         <v>5</v>
       </c>
       <c r="B105">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E105" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -2613,16 +2610,16 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="E106" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -2633,13 +2630,13 @@
         <v>2023</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2650,13 +2647,13 @@
         <v>2023</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E108" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2667,13 +2664,13 @@
         <v>2023</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E109" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -2684,13 +2681,13 @@
         <v>2023</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -2701,13 +2698,13 @@
         <v>2023</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111">
         <v>25</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -2715,16 +2712,16 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -2732,16 +2729,16 @@
         <v>5</v>
       </c>
       <c r="B113">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -2752,10 +2749,10 @@
         <v>1961</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E114">
         <v>0.03</v>
@@ -2769,10 +2766,10 @@
         <v>1961</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>0.03</v>
@@ -2786,10 +2783,10 @@
         <v>1961</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E116">
         <v>0.03</v>
@@ -2803,10 +2800,10 @@
         <v>1961</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E117">
         <v>0.03</v>
@@ -2820,13 +2817,13 @@
         <v>1961</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E118">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -2834,13 +2831,13 @@
         <v>5</v>
       </c>
       <c r="B119">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E119">
         <v>0.03</v>
@@ -2851,16 +2848,16 @@
         <v>5</v>
       </c>
       <c r="B120">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -2871,10 +2868,10 @@
         <v>2023</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E121">
         <v>0.03</v>
@@ -2888,10 +2885,10 @@
         <v>2023</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>0.03</v>
@@ -2905,10 +2902,10 @@
         <v>2023</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E123">
         <v>0.03</v>
@@ -2922,10 +2919,10 @@
         <v>2023</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E124">
         <v>0.03</v>
@@ -2939,13 +2936,13 @@
         <v>2023</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E125">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -2953,16 +2950,16 @@
         <v>5</v>
       </c>
       <c r="B126">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E126">
-        <v>0.03</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -2973,13 +2970,13 @@
         <v>2023</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -2990,13 +2987,13 @@
         <v>1961</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E128">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3007,13 +3004,13 @@
         <v>2023</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E129">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3024,13 +3021,13 @@
         <v>1961</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E130">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3041,13 +3038,13 @@
         <v>2023</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E131">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -3058,13 +3055,13 @@
         <v>1961</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E132">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3075,13 +3072,13 @@
         <v>2023</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E133">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3092,13 +3089,13 @@
         <v>1961</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -3106,16 +3103,16 @@
         <v>5</v>
       </c>
       <c r="B135">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -3126,13 +3123,13 @@
         <v>1961</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -3140,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="B137">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E137">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -3157,16 +3154,16 @@
         <v>5</v>
       </c>
       <c r="B138">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E138">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -3177,13 +3174,13 @@
         <v>2023</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3191,16 +3188,16 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E140">
-        <v>0.5</v>
+        <v>71</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -3211,13 +3208,13 @@
         <v>2023</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E141">
-        <v>0.05</v>
+        <v>71</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -3225,16 +3222,16 @@
         <v>5</v>
       </c>
       <c r="B142">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -3245,13 +3242,13 @@
         <v>2023</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -3262,10 +3259,10 @@
         <v>2023</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
         <v>29</v>
@@ -3276,16 +3273,16 @@
         <v>5</v>
       </c>
       <c r="B145">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -3293,16 +3290,16 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -3313,47 +3310,47 @@
         <v>1961</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E147" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148">
-        <v>1961</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" t="s">
-        <v>40</v>
+      <c r="A148" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="9">
+        <v>2.76</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149">
-        <v>1961</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>23</v>
-      </c>
-      <c r="E149" t="s">
-        <v>41</v>
+      <c r="A149" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E149" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -3364,13 +3361,13 @@
         <v>1961</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E150" s="9">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -3380,14 +3377,14 @@
       <c r="B151" s="3">
         <v>1961</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>35</v>
+      <c r="C151" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E151" s="9">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -3398,13 +3395,13 @@
         <v>1961</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E152" s="9">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -3415,13 +3412,13 @@
         <v>1961</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E153" s="9">
-        <v>2.2000000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3432,13 +3429,13 @@
         <v>1961</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E154" s="9">
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3449,12 +3446,12 @@
         <v>1961</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="4">
+        <v>11</v>
+      </c>
+      <c r="E155" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3466,47 +3463,47 @@
         <v>1961</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="9">
-        <v>3.5</v>
+        <v>22</v>
+      </c>
+      <c r="E156" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="3">
-        <v>1961</v>
+      <c r="A157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2023</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="12">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="9">
+        <v>2.5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="2">
-        <v>1961</v>
+      <c r="A158" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2023</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E158" s="13">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" s="9">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -3517,13 +3514,13 @@
         <v>2023</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E159" s="9">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -3534,13 +3531,13 @@
         <v>2023</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E160" s="9">
-        <v>2.2000000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -3551,13 +3548,13 @@
         <v>2023</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E161" s="9">
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -3568,12 +3565,12 @@
         <v>2023</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="4">
+        <v>11</v>
+      </c>
+      <c r="E162" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3585,46 +3582,46 @@
         <v>2023</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="9">
-        <v>3.5</v>
+        <v>22</v>
+      </c>
+      <c r="E163" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="3">
-        <v>2023</v>
+      <c r="A164" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1961</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="12">
+        <v>35</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="2">
-        <v>2023</v>
+      <c r="A165" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1961</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E165" s="13">
+        <v>35</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E165">
         <v>0</v>
       </c>
     </row>
@@ -3636,10 +3633,10 @@
         <v>1961</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -3653,13 +3650,13 @@
         <v>1961</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
@@ -3670,10 +3667,10 @@
         <v>1961</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3687,13 +3684,13 @@
         <v>1961</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
@@ -3704,47 +3701,47 @@
         <v>1961</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="3">
-        <v>1961</v>
+      <c r="A171" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2023</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="2">
-        <v>1961</v>
+      <c r="A172" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2023</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E172">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -3755,10 +3752,10 @@
         <v>2023</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3772,13 +3769,13 @@
         <v>2023</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
@@ -3789,10 +3786,10 @@
         <v>2023</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -3806,13 +3803,13 @@
         <v>2023</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E176">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
@@ -3823,80 +3820,46 @@
         <v>2023</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="3">
-        <v>2023</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>11</v>
+      <c r="A178" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="15">
+        <v>1961</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>40</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>24</v>
+      <c r="A179" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>40</v>
       </c>
       <c r="E179">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="15">
-        <v>1961</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>42</v>
-      </c>
-      <c r="E180">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" t="s">
-        <v>42</v>
-      </c>
-      <c r="E181">
         <v>25</v>
       </c>
     </row>
@@ -3914,7 +3877,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3924,315 +3887,315 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0.65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0.2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0.4</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0.6</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0.1</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>0.05</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0.05</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0.1</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0.65</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0.25</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0.3</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>0.4</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>0.3</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>0.05</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>0.05</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>0.05</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0.3</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>0.05</v>
@@ -4243,13 +4206,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>0.15</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/example/production france.xlsx
+++ b/example/production france.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D786189B-545C-43C2-8DBB-1C94F6EF2590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE510970-B8F3-4911-8AD7-541BDD59CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="2" r:id="rId1"/>
@@ -806,9 +806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D825A9-0C1C-44E4-98B7-F194F26ABDB6}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,7 +851,7 @@
         <v>61</v>
       </c>
       <c r="E2">
-        <v>5412.79</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="E3">
-        <v>2480</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -919,7 +919,7 @@
         <v>65</v>
       </c>
       <c r="E6">
-        <v>95730.52</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -936,7 +936,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="1">
-        <v>20000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3876,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80ABBC0-87F2-4F7A-9036-33771C52D9AC}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4044,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -4066,7 +4066,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>

--- a/example/production france.xlsx
+++ b/example/production france.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE510970-B8F3-4911-8AD7-541BDD59CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94CF26D-6000-43E4-8177-037D6DAE8DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F475FEA0-B9E5-4A03-9EDE-4A3E6C5C262C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="77">
   <si>
     <t>Area</t>
   </si>
@@ -804,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D825A9-0C1C-44E4-98B7-F194F26ABDB6}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3120,16 +3120,16 @@
         <v>5</v>
       </c>
       <c r="B136">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E136">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -3143,10 +3143,10 @@
         <v>36</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -3160,10 +3160,10 @@
         <v>36</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -3171,16 +3171,16 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E139">
-        <v>0.05</v>
+        <v>71</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3188,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>36</v>
@@ -3197,7 +3197,7 @@
         <v>71</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -3208,13 +3208,13 @@
         <v>2023</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -3228,10 +3228,10 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -3245,10 +3245,10 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -3256,16 +3256,16 @@
         <v>5</v>
       </c>
       <c r="B144">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -3279,10 +3279,10 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -3296,162 +3296,162 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147">
-        <v>1961</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" t="s">
-        <v>39</v>
+      <c r="A147" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="9">
+        <v>2.76</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="2">
-        <v>1961</v>
-      </c>
-      <c r="C148" s="5" t="s">
+      <c r="A148" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>69</v>
+      <c r="D148" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E148" s="9">
-        <v>2.76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="3">
-        <v>1961</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>62</v>
+      <c r="A149" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E149" s="9">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="2">
+      <c r="A150" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3">
         <v>1961</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>6</v>
+      <c r="D150" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E150" s="9">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="3">
+      <c r="A151" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="2">
         <v>1961</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>68</v>
+      <c r="D151" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E151" s="9">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="2">
+      <c r="A152" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3">
         <v>1961</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="9">
-        <v>2.2000000000000002</v>
+      <c r="D152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="3">
+      <c r="A153" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="2">
         <v>1961</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="4">
-        <v>0</v>
+      <c r="D153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="9">
+        <v>3.5</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="2">
+      <c r="A154" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3">
         <v>1961</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" s="9">
-        <v>3.5</v>
+      <c r="D154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="3">
+      <c r="A155" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="2">
         <v>1961</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="12">
+      <c r="D155" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="13">
         <v>0</v>
       </c>
     </row>
@@ -3460,117 +3460,117 @@
         <v>5</v>
       </c>
       <c r="B156" s="2">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="13">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E156" s="9">
+        <v>2.5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="2">
+      <c r="A157" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3">
         <v>2023</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>6</v>
+      <c r="D157" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E157" s="9">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="3">
+      <c r="A158" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="2">
         <v>2023</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>68</v>
+      <c r="D158" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E158" s="9">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="2">
+      <c r="A159" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3">
         <v>2023</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="9">
-        <v>2.2000000000000002</v>
+      <c r="D159" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="3">
+      <c r="A160" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="2">
         <v>2023</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="4">
-        <v>0</v>
+      <c r="D160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="9">
+        <v>3.5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="2">
+      <c r="A161" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="3">
         <v>2023</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="9">
-        <v>3.5</v>
+      <c r="D161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="3">
+      <c r="A162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="2">
         <v>2023</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" s="12">
+      <c r="D162" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="13">
         <v>0</v>
       </c>
     </row>
@@ -3579,118 +3579,118 @@
         <v>5</v>
       </c>
       <c r="B163" s="2">
-        <v>2023</v>
+        <v>1961</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E163" s="13">
+        <v>6</v>
+      </c>
+      <c r="E163">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="2">
+      <c r="A164" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="3">
         <v>1961</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>6</v>
+      <c r="D164" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="3">
+      <c r="A165" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="2">
         <v>1961</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>68</v>
+      <c r="D165" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="2">
+      <c r="A166" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="3">
         <v>1961</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>7</v>
+      <c r="D166" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="3">
+      <c r="A167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="2">
         <v>1961</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>8</v>
+      <c r="D167" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="2">
+      <c r="A168" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="3">
         <v>1961</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>9</v>
+      <c r="D168" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="3">
+      <c r="A169" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="2">
         <v>1961</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>11</v>
+      <c r="D169" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
@@ -3698,135 +3698,135 @@
         <v>5</v>
       </c>
       <c r="B170" s="2">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="2">
+      <c r="A171" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="3">
         <v>2023</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>6</v>
+      <c r="D171" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="3">
+      <c r="A172" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="2">
         <v>2023</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>68</v>
+      <c r="D172" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="2">
+      <c r="A173" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3">
         <v>2023</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>7</v>
+      <c r="D173" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="3">
+      <c r="A174" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="2">
         <v>2023</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>8</v>
+      <c r="D174" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="2">
+      <c r="A175" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="3">
         <v>2023</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>9</v>
+      <c r="D175" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="3">
+      <c r="A176" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="2">
         <v>2023</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>11</v>
+      <c r="D176" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>22</v>
+      <c r="A177" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="15">
+        <v>1961</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>40</v>
       </c>
       <c r="E177">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
@@ -3834,7 +3834,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="15">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>12</v>
@@ -3843,23 +3843,6 @@
         <v>40</v>
       </c>
       <c r="E178">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" t="s">
-        <v>40</v>
-      </c>
-      <c r="E179">
         <v>25</v>
       </c>
     </row>
@@ -3876,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80ABBC0-87F2-4F7A-9036-33771C52D9AC}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
